--- a/SEROFOI/summary_models/TWN-025-01_VPH16.xlsx
+++ b/SEROFOI/summary_models/TWN-025-01_VPH16.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caj_d\OneDrive\Escritorio\Proyecto Fuerza de infección VPH\GIT\hpv_seroprevalence\SEROFOI\summary_models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88AAD54C-88DA-4F84-B8F8-66D163F0B5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618E042C-9DCF-4434-B232-E1521D0C05F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -334,25 +334,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -373,6 +356,24 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,94 +767,94 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:7" ht="45.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="8">
         <v>1</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" ht="30.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="F11" s="9"/>
+      <c r="G11" s="13"/>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="6"/>
-    </row>
-    <row r="13" spans="1:7" ht="31.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="13"/>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="11">
         <v>1</v>
       </c>
     </row>
